--- a/docs/ST1/ST1_30.07.24d_output.xlsx
+++ b/docs/ST1/ST1_30.07.24d_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,11 @@
           <t>quity</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,6 +533,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -540,22 +546,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1730736288.7250311</t>
+          <t>1731623495.9675329</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1730736291.3837497</t>
+          <t>1731623498.7673485</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736288.7250311.png</t>
+          <t>./test_images/SBER1731623495.9675329.png</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736291.3837497.png</t>
+          <t>./test_images/SBER1731623498.7673485.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -576,6 +582,9 @@
       </c>
       <c r="K3" t="n">
         <v>-0.3599999999999568</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4">
@@ -589,22 +598,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1730736291.8988512</t>
+          <t>1731623499.290438</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1730736292.821118</t>
+          <t>1731623500.2328153</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736291.8988512.png</t>
+          <t>./test_images/SBER1731623499.290438.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736292.821118.png</t>
+          <t>./test_images/SBER1731623500.2328153.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -625,6 +634,9 @@
       </c>
       <c r="K4" t="n">
         <v>-0.660000000000025</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +650,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1730736292.8370485</t>
+          <t>1731623500.2477481</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1730736294.0524735</t>
+          <t>1731623501.482735</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736292.8370485.png</t>
+          <t>./test_images/SBER1731623500.2477481.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736294.0524735.png</t>
+          <t>./test_images/SBER1731623501.482735.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -674,6 +686,9 @@
       </c>
       <c r="K5" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="6">
@@ -687,22 +702,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1730736296.4952633</t>
+          <t>1731623504.2137852</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1730736297.9026945</t>
+          <t>1731623505.8407483</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736296.4952633.png</t>
+          <t>./test_images/SBER1731623504.2137852.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736297.9026945.png</t>
+          <t>./test_images/SBER1731623505.8407483.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -723,6 +738,9 @@
       </c>
       <c r="K6" t="n">
         <v>0.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -736,22 +754,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1730736305.6938372</t>
+          <t>1731623513.747531</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1730736308.4012105</t>
+          <t>1731623516.527287</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736305.6938372.png</t>
+          <t>./test_images/SBER1731623513.747531.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736308.4012105.png</t>
+          <t>./test_images/SBER1731623516.527287.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -772,6 +790,9 @@
       </c>
       <c r="K7" t="n">
         <v>0.2100000000000364</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -785,13 +806,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1730736308.4172282</t>
+          <t>1731623516.5432894</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/SBER1730736308.4172282.png</t>
+          <t>./test_images/SBER1731623516.5432894.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -808,8 +829,15 @@
       <c r="I8" t="n">
         <v>289.8</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>289.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -822,22 +850,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1730736311.728942</t>
+          <t>1731623520.0211256</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1730736311.8645523</t>
+          <t>1731623520.1584063</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736311.728942.png</t>
+          <t>./test_images/GAZP1731623520.0211256.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736311.8645523.png</t>
+          <t>./test_images/GAZP1731623520.1584063.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -858,6 +886,9 @@
       </c>
       <c r="K9" t="n">
         <v>0.7700000000000102</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="10">
@@ -871,22 +902,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1730736312.240969</t>
+          <t>1731623520.5315604</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1730736313.5472229</t>
+          <t>1731623521.9381146</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736312.240969.png</t>
+          <t>./test_images/GAZP1731623520.5315604.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736313.5472229.png</t>
+          <t>./test_images/GAZP1731623521.9381146.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -907,6 +938,9 @@
       </c>
       <c r="K10" t="n">
         <v>0.5300000000000011</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -920,22 +954,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1730736314.8619292</t>
+          <t>1731623523.3712902</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1730736318.2720718</t>
+          <t>1731623526.8797662</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736314.8619292.png</t>
+          <t>./test_images/GAZP1731623523.3712902.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736318.2720718.png</t>
+          <t>./test_images/GAZP1731623526.8797662.png</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -956,6 +990,9 @@
       </c>
       <c r="K11" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -969,22 +1006,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1730736320.825542</t>
+          <t>1731623529.3859746</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1730736321.7354143</t>
+          <t>1731623530.265693</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736320.825542.png</t>
+          <t>./test_images/GAZP1731623529.3859746.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736321.7354143.png</t>
+          <t>./test_images/GAZP1731623530.265693.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1005,6 +1042,9 @@
       </c>
       <c r="K12" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -1018,22 +1058,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1730736322.9225051</t>
+          <t>1731623531.4395342</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1730736325.6537228</t>
+          <t>1731623534.0940266</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736322.9225051.png</t>
+          <t>./test_images/GAZP1731623531.4395342.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736325.6537228.png</t>
+          <t>./test_images/GAZP1731623534.0940266.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1054,6 +1094,9 @@
       </c>
       <c r="K13" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="14">
@@ -1067,22 +1110,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1730736326.9351237</t>
+          <t>1731623535.3488443</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1730736328.0670083</t>
+          <t>1731623536.4778924</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736326.9351237.png</t>
+          <t>./test_images/GAZP1731623535.3488443.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736328.0670083.png</t>
+          <t>./test_images/GAZP1731623536.4778924.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1103,6 +1146,9 @@
       </c>
       <c r="K14" t="n">
         <v>-0.660000000000025</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15">
@@ -1116,22 +1162,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1730736328.082936</t>
+          <t>1731623536.494847</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1730736328.6802292</t>
+          <t>1731623537.0494528</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736328.082936.png</t>
+          <t>./test_images/GAZP1731623536.494847.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736328.6802292.png</t>
+          <t>./test_images/GAZP1731623537.0494528.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1152,6 +1198,9 @@
       </c>
       <c r="K15" t="n">
         <v>0.1699999999999875</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="16">
@@ -1165,22 +1214,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1730736330.213725</t>
+          <t>1731623538.4307585</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1730736332.8447459</t>
+          <t>1731623541.2287169</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736330.213725.png</t>
+          <t>./test_images/GAZP1731623538.4307585.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736332.8447459.png</t>
+          <t>./test_images/GAZP1731623541.2287169.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1201,6 +1250,9 @@
       </c>
       <c r="K16" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="17">
@@ -1214,22 +1266,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1730736332.8616028</t>
+          <t>1731623541.245673</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1730736333.5952578</t>
+          <t>1731623542.0488193</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736332.8616028.png</t>
+          <t>./test_images/GAZP1731623541.245673.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736333.5952578.png</t>
+          <t>./test_images/GAZP1731623542.0488193.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1250,6 +1302,9 @@
       </c>
       <c r="K17" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="18">
@@ -1263,22 +1318,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1730736333.611214</t>
+          <t>1731623542.0647762</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1730736334.6886313</t>
+          <t>1731623543.203213</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736333.611214.png</t>
+          <t>./test_images/GAZP1731623542.0647762.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./test_images/GAZP1730736334.6886313.png</t>
+          <t>./test_images/GAZP1731623543.203213.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,6 +1354,9 @@
       </c>
       <c r="K18" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
@@ -1312,22 +1370,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1730736336.6585257</t>
+          <t>1731623545.349279</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1730736337.5187936</t>
+          <t>1731623546.4603047</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736336.6585257.png</t>
+          <t>./test_images/LKOH1731623545.349279.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736337.5187936.png</t>
+          <t>./test_images/LKOH1731623546.4603047.png</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1348,6 +1406,9 @@
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
@@ -1361,22 +1422,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1730736337.534751</t>
+          <t>1731623546.4762647</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1730736340.1163616</t>
+          <t>1731623549.112639</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736337.534751.png</t>
+          <t>./test_images/LKOH1731623546.4762647.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736340.1163616.png</t>
+          <t>./test_images/LKOH1731623549.112639.png</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1397,6 +1458,9 @@
       </c>
       <c r="K20" t="n">
         <v>-18</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="21">
@@ -1410,22 +1474,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1730736340.1312947</t>
+          <t>1731623549.1285763</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1730736341.0637748</t>
+          <t>1731623550.0958061</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736340.1312947.png</t>
+          <t>./test_images/LKOH1731623549.1285763.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736341.0637748.png</t>
+          <t>./test_images/LKOH1731623550.0958061.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1446,6 +1510,9 @@
       </c>
       <c r="K21" t="n">
         <v>21</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="22">
@@ -1459,22 +1526,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1730736341.606296</t>
+          <t>1731623550.6518307</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1730736343.0670116</t>
+          <t>1731623552.1326244</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736341.606296.png</t>
+          <t>./test_images/LKOH1731623550.6518307.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736343.0670116.png</t>
+          <t>./test_images/LKOH1731623552.1326244.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1495,6 +1562,9 @@
       </c>
       <c r="K22" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1508,22 +1578,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1730736343.0839334</t>
+          <t>1731623552.1495519</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1730736347.8568397</t>
+          <t>1731623557.1489213</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736343.0839334.png</t>
+          <t>./test_images/LKOH1731623552.1495519.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736347.8568397.png</t>
+          <t>./test_images/LKOH1731623557.1489213.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1544,6 +1614,9 @@
       </c>
       <c r="K23" t="n">
         <v>-43</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="24">
@@ -1557,22 +1630,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1730736347.873794</t>
+          <t>1731623557.1648483</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1730736348.5734363</t>
+          <t>1731623557.853773</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736347.873794.png</t>
+          <t>./test_images/LKOH1731623557.1648483.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736348.5734363.png</t>
+          <t>./test_images/LKOH1731623557.853773.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1593,6 +1666,9 @@
       </c>
       <c r="K24" t="n">
         <v>15.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="25">
@@ -1606,22 +1682,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1730736349.7146726</t>
+          <t>1731623559.02217</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1730736350.2332847</t>
+          <t>1731623559.549751</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736349.7146726.png</t>
+          <t>./test_images/LKOH1731623559.02217.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736350.2332847.png</t>
+          <t>./test_images/LKOH1731623559.549751.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1642,6 +1718,9 @@
       </c>
       <c r="K25" t="n">
         <v>15.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
@@ -1655,22 +1734,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1730736355.975169</t>
+          <t>1731623565.560877</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1730736356.5221858</t>
+          <t>1731623566.1447794</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736355.975169.png</t>
+          <t>./test_images/LKOH1731623565.560877.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736356.5221858.png</t>
+          <t>./test_images/LKOH1731623566.1447794.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1690,6 +1769,9 @@
         <v>6786.5</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1704,22 +1786,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1730736356.5381422</t>
+          <t>1731623566.161706</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1730736357.5090094</t>
+          <t>1731623567.1502419</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736356.5381422.png</t>
+          <t>./test_images/LKOH1731623566.161706.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736357.5090094.png</t>
+          <t>./test_images/LKOH1731623567.1502419.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1740,6 +1822,9 @@
       </c>
       <c r="K27" t="n">
         <v>4.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1753,22 +1838,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1730736357.5259643</t>
+          <t>1731623567.1671968</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1730736359.727978</t>
+          <t>1731623569.5472114</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736357.5259643.png</t>
+          <t>./test_images/LKOH1731623567.1671968.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./test_images/LKOH1730736359.727978.png</t>
+          <t>./test_images/LKOH1731623569.5472114.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1789,6 +1874,9 @@
       </c>
       <c r="K28" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="29">
@@ -1802,22 +1890,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1730736361.8862286</t>
+          <t>1731623571.6922176</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1730736367.1512284</t>
+          <t>1731623576.9544437</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736361.8862286.png</t>
+          <t>./test_images/ROSN1731623571.6922176.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736367.1512284.png</t>
+          <t>./test_images/ROSN1731623576.9544437.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1838,6 +1926,9 @@
       </c>
       <c r="K29" t="n">
         <v>-2.800000000000011</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1851,22 +1942,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1730736373.840691</t>
+          <t>1731623584.2094014</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1730736375.5309207</t>
+          <t>1731623585.8979125</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736373.840691.png</t>
+          <t>./test_images/ROSN1731623584.2094014.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736375.5309207.png</t>
+          <t>./test_images/ROSN1731623585.8979125.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1887,6 +1978,9 @@
       </c>
       <c r="K30" t="n">
         <v>1.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="31">
@@ -1900,22 +1994,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1730736375.9617734</t>
+          <t>1731623586.3478165</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1730736378.799005</t>
+          <t>1731623589.314265</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736375.9617734.png</t>
+          <t>./test_images/ROSN1731623586.3478165.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736378.799005.png</t>
+          <t>./test_images/ROSN1731623589.314265.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1936,6 +2030,9 @@
       </c>
       <c r="K31" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
@@ -1949,22 +2046,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1730736378.8159325</t>
+          <t>1731623589.3312173</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1730736379.544608</t>
+          <t>1731623590.0700424</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736378.8159325.png</t>
+          <t>./test_images/ROSN1731623589.3312173.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736379.544608.png</t>
+          <t>./test_images/ROSN1731623590.0700424.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1985,6 +2082,9 @@
       </c>
       <c r="K32" t="n">
         <v>0.8999999999999773</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="33">
@@ -1998,22 +2098,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1730736379.8945024</t>
+          <t>1731623590.4342532</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1730736381.6489449</t>
+          <t>1731623592.2558513</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736379.8945024.png</t>
+          <t>./test_images/ROSN1731623590.4342532.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736381.6489449.png</t>
+          <t>./test_images/ROSN1731623592.2558513.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2034,6 +2134,9 @@
       </c>
       <c r="K33" t="n">
         <v>2.400000000000034</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="34">
@@ -2047,22 +2150,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1730736382.2100694</t>
+          <t>1731623592.7416332</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1730736383.3073428</t>
+          <t>1731623593.8820243</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736382.2100694.png</t>
+          <t>./test_images/ROSN1731623592.7416332.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736383.3073428.png</t>
+          <t>./test_images/ROSN1731623593.8820243.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2083,6 +2186,9 @@
       </c>
       <c r="K34" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="35">
@@ -2096,22 +2202,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1730736383.3252664</t>
+          <t>1731623593.8989518</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1730736384.0578043</t>
+          <t>1731623594.663878</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736383.3252664.png</t>
+          <t>./test_images/ROSN1731623593.8989518.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736384.0578043.png</t>
+          <t>./test_images/ROSN1731623594.663878.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2132,6 +2238,9 @@
       </c>
       <c r="K35" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
@@ -2145,13 +2254,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1730736384.074759</t>
+          <t>1731623594.6808321</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>./test_images/ROSN1730736384.074759.png</t>
+          <t>./test_images/ROSN1731623594.6808321.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2168,8 +2277,15 @@
       <c r="I36" t="n">
         <v>511.35</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>511.35</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2182,22 +2298,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1730736384.809797</t>
+          <t>1731623595.4754963</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1730736385.1427093</t>
+          <t>1731623595.8166547</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736384.809797.png</t>
+          <t>./test_images/NVTK1731623595.4754963.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736385.1427093.png</t>
+          <t>./test_images/NVTK1731623595.8166547.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2218,6 +2334,9 @@
       </c>
       <c r="K37" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="38">
@@ -2231,22 +2350,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1730736385.1586676</t>
+          <t>1731623595.8326073</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1730736385.9196055</t>
+          <t>1731623596.606464</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736385.1586676.png</t>
+          <t>./test_images/NVTK1731623595.8326073.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736385.9196055.png</t>
+          <t>./test_images/NVTK1731623596.606464.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2267,6 +2386,9 @@
       </c>
       <c r="K38" t="n">
         <v>-2.600000000000023</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="39">
@@ -2280,22 +2402,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1730736385.9355652</t>
+          <t>1731623596.6223922</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1730736388.2124646</t>
+          <t>1731623598.723961</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736385.9355652.png</t>
+          <t>./test_images/NVTK1731623596.6223922.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736388.2124646.png</t>
+          <t>./test_images/NVTK1731623598.723961.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2316,6 +2438,9 @@
       </c>
       <c r="K39" t="n">
         <v>-12.19999999999993</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="40">
@@ -2329,22 +2454,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1730736388.2283902</t>
+          <t>1731623598.743908</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1730736389.3826609</t>
+          <t>1731623599.8994434</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736388.2283902.png</t>
+          <t>./test_images/NVTK1731623598.743908.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736389.3826609.png</t>
+          <t>./test_images/NVTK1731623599.8994434.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2365,6 +2490,9 @@
       </c>
       <c r="K40" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="41">
@@ -2378,22 +2506,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1730736389.3996158</t>
+          <t>1731623599.916397</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1730736390.6041236</t>
+          <t>1731623600.9785428</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736389.3996158.png</t>
+          <t>./test_images/NVTK1731623599.916397.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736390.6041236.png</t>
+          <t>./test_images/NVTK1731623600.9785428.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2414,6 +2542,9 @@
       </c>
       <c r="K41" t="n">
         <v>8.599999999999909</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="42">
@@ -2427,22 +2558,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1730736390.9838758</t>
+          <t>1731623601.3451316</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1730736394.9658267</t>
+          <t>1731623605.2608128</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736390.9838758.png</t>
+          <t>./test_images/NVTK1731623601.3451316.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736394.9658267.png</t>
+          <t>./test_images/NVTK1731623605.2608128.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2463,6 +2594,9 @@
       </c>
       <c r="K42" t="n">
         <v>-7.400000000000091</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="43">
@@ -2476,22 +2610,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1730736394.9827533</t>
+          <t>1731623605.276763</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1730736395.608677</t>
+          <t>1731623605.895377</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736394.9827533.png</t>
+          <t>./test_images/NVTK1731623605.276763.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736395.608677.png</t>
+          <t>./test_images/NVTK1731623605.895377.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2512,6 +2646,9 @@
       </c>
       <c r="K43" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="44">
@@ -2525,22 +2662,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1730736397.2547126</t>
+          <t>1731623607.5146954</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1730736398.788411</t>
+          <t>1731623608.9903858</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736397.2547126.png</t>
+          <t>./test_images/NVTK1731623607.5146954.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736398.788411.png</t>
+          <t>./test_images/NVTK1731623608.9903858.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2561,6 +2698,9 @@
       </c>
       <c r="K44" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="45">
@@ -2574,22 +2714,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1730736398.8063345</t>
+          <t>1731623609.0093343</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1730736399.6221902</t>
+          <t>1731623609.8095095</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736398.8063345.png</t>
+          <t>./test_images/NVTK1731623609.0093343.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736399.6221902.png</t>
+          <t>./test_images/NVTK1731623609.8095095.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2610,6 +2750,9 @@
       </c>
       <c r="K45" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="46">
@@ -2623,22 +2766,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1730736399.6391454</t>
+          <t>1731623609.8264358</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1730736401.1153545</t>
+          <t>1731623611.2833354</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736399.6391454.png</t>
+          <t>./test_images/NVTK1731623609.8264358.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736401.1153545.png</t>
+          <t>./test_images/NVTK1731623611.2833354.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2659,6 +2802,9 @@
       </c>
       <c r="K46" t="n">
         <v>-5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="47">
@@ -2672,22 +2818,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1730736401.133302</t>
+          <t>1731623611.3003168</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1730736402.065396</t>
+          <t>1731623612.2067578</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736401.133302.png</t>
+          <t>./test_images/NVTK1731623611.3003168.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736402.065396.png</t>
+          <t>./test_images/NVTK1731623612.2067578.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2708,6 +2854,9 @@
       </c>
       <c r="K47" t="n">
         <v>3</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="48">
@@ -2721,22 +2870,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1730736405.8940694</t>
+          <t>1731623615.7686486</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1730736407.105849</t>
+          <t>1731623616.9774983</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736405.8940694.png</t>
+          <t>./test_images/NVTK1731623615.7686486.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736407.105849.png</t>
+          <t>./test_images/NVTK1731623616.9774983.png</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2757,6 +2906,9 @@
       </c>
       <c r="K48" t="n">
         <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="49">
@@ -2770,13 +2922,13 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1730736408.1510365</t>
+          <t>1731623617.9959269</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>./test_images/NVTK1730736408.1510365.png</t>
+          <t>./test_images/NVTK1731623617.9959269.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2793,8 +2945,15 @@
       <c r="I49" t="n">
         <v>1045.4</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1045.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2807,22 +2966,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1730736409.555834</t>
+          <t>1731623619.4068131</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1730736410.2917306</t>
+          <t>1731623620.3644485</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736409.555834.png</t>
+          <t>./test_images/GMKN1731623619.4068131.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736410.2917306.png</t>
+          <t>./test_images/GMKN1731623620.3644485.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2843,6 +3002,9 @@
       </c>
       <c r="K50" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="51">
@@ -2856,22 +3018,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1730736410.3077142</t>
+          <t>1731623620.3803778</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1730736411.3768337</t>
+          <t>1731623621.6440673</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736410.3077142.png</t>
+          <t>./test_images/GMKN1731623620.3803778.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736411.3768337.png</t>
+          <t>./test_images/GMKN1731623621.6440673.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2892,6 +3054,9 @@
       </c>
       <c r="K51" t="n">
         <v>-0.1199999999999903</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="52">
@@ -2905,22 +3070,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1730736411.3928304</t>
+          <t>1731623621.6600246</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1730736413.3935075</t>
+          <t>1731623624.0922284</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736411.3928304.png</t>
+          <t>./test_images/GMKN1731623621.6600246.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736413.3935075.png</t>
+          <t>./test_images/GMKN1731623624.0922284.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2941,6 +3106,9 @@
       </c>
       <c r="K52" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="53">
@@ -2954,22 +3122,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1730736413.4094934</t>
+          <t>1731623624.109183</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1730736414.114631</t>
+          <t>1731623624.8164384</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736413.4094934.png</t>
+          <t>./test_images/GMKN1731623624.109183.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736414.114631.png</t>
+          <t>./test_images/GMKN1731623624.8164384.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2989,6 +3157,9 @@
         <v>125.2</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3003,22 +3174,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1730736414.1306374</t>
+          <t>1731623624.8323963</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1730736417.4142432</t>
+          <t>1731623628.6414115</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736414.1306374.png</t>
+          <t>./test_images/GMKN1731623624.8323963.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736417.4142432.png</t>
+          <t>./test_images/GMKN1731623628.6414115.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3039,6 +3210,9 @@
       </c>
       <c r="K54" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="55">
@@ -3052,22 +3226,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1730736418.5506134</t>
+          <t>1731623629.8192072</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1730736418.6483529</t>
+          <t>1731623629.922407</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736418.5506134.png</t>
+          <t>./test_images/GMKN1731623629.8192072.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736418.6483529.png</t>
+          <t>./test_images/GMKN1731623629.922407.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3088,6 +3262,9 @@
       </c>
       <c r="K55" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="56">
@@ -3101,22 +3278,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1730736423.4019477</t>
+          <t>1731623634.7259407</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1730736425.0336452</t>
+          <t>1731623636.5197663</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736423.4019477.png</t>
+          <t>./test_images/GMKN1731623634.7259407.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736425.0336452.png</t>
+          <t>./test_images/GMKN1731623636.5197663.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3137,6 +3314,9 @@
       </c>
       <c r="K56" t="n">
         <v>-0.3800000000000097</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="57">
@@ -3150,22 +3330,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1730736425.0496027</t>
+          <t>1731623636.5357244</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1730736426.6547725</t>
+          <t>1731623638.1886647</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736425.0496027.png</t>
+          <t>./test_images/GMKN1731623636.5357244.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736426.6547725.png</t>
+          <t>./test_images/GMKN1731623638.1886647.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3186,6 +3366,9 @@
       </c>
       <c r="K57" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
@@ -3199,22 +3382,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1730736426.671728</t>
+          <t>1731623638.20562</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1730736429.1328895</t>
+          <t>1731623640.8366575</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736426.671728.png</t>
+          <t>./test_images/GMKN1731623638.20562.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736429.1328895.png</t>
+          <t>./test_images/GMKN1731623640.8366575.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3235,6 +3418,9 @@
       </c>
       <c r="K58" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="59">
@@ -3248,22 +3434,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1730736429.149816</t>
+          <t>1731623640.853611</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1730736431.551541</t>
+          <t>1731623643.290635</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736429.149816.png</t>
+          <t>./test_images/GMKN1731623640.853611.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./test_images/GMKN1730736431.551541.png</t>
+          <t>./test_images/GMKN1731623643.290635.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3284,6 +3470,9 @@
       </c>
       <c r="K59" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="60">
@@ -3297,22 +3486,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1730736433.205467</t>
+          <t>1731623645.1384504</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1730736433.7916594</t>
+          <t>1731623645.8063586</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736433.205467.png</t>
+          <t>./test_images/NLMK1731623645.1384504.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736433.7916594.png</t>
+          <t>./test_images/NLMK1731623645.8063586.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3333,6 +3522,9 @@
       </c>
       <c r="K60" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="61">
@@ -3346,22 +3538,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1730736433.8095894</t>
+          <t>1731623645.822318</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1730736434.9082763</t>
+          <t>1731623647.081256</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736433.8095894.png</t>
+          <t>./test_images/NLMK1731623645.822318.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736434.9082763.png</t>
+          <t>./test_images/NLMK1731623647.081256.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3382,6 +3574,9 @@
       </c>
       <c r="K61" t="n">
         <v>0.5799999999999841</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="62">
@@ -3395,22 +3590,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1730736434.9252596</t>
+          <t>1731623647.097212</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1730736438.12919</t>
+          <t>1731623650.589893</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736434.9252596.png</t>
+          <t>./test_images/NLMK1731623647.097212.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736438.12919.png</t>
+          <t>./test_images/NLMK1731623650.589893.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3431,6 +3626,9 @@
       </c>
       <c r="K62" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="63">
@@ -3444,22 +3642,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1730736438.1461408</t>
+          <t>1731623650.6058784</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1730736439.565345</t>
+          <t>1731623652.0090437</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736438.1461408.png</t>
+          <t>./test_images/NLMK1731623650.6058784.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736439.565345.png</t>
+          <t>./test_images/NLMK1731623652.0090437.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3480,6 +3678,9 @@
       </c>
       <c r="K63" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="64">
@@ -3493,22 +3694,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1730736441.2782507</t>
+          <t>1731623653.6621764</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1730736442.8100586</t>
+          <t>1731623655.0220153</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736441.2782507.png</t>
+          <t>./test_images/NLMK1731623653.6621764.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736442.8100586.png</t>
+          <t>./test_images/NLMK1731623655.0220153.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3529,6 +3730,9 @@
       </c>
       <c r="K64" t="n">
         <v>-0.09999999999999432</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="65">
@@ -3542,22 +3746,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1730736446.914386</t>
+          <t>1731623659.0293953</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1730736452.0846095</t>
+          <t>1731623664.048684</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736446.914386.png</t>
+          <t>./test_images/NLMK1731623659.0293953.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./test_images/NLMK1730736452.0846095.png</t>
+          <t>./test_images/NLMK1731623664.048684.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3578,6 +3782,9 @@
       </c>
       <c r="K65" t="n">
         <v>1.280000000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="66">
@@ -3591,22 +3798,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1730736457.144486</t>
+          <t>1731623669.0777586</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1730736457.9156394</t>
+          <t>1731623669.882744</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736457.144486.png</t>
+          <t>./test_images/MAGN1731623669.0777586.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736457.9156394.png</t>
+          <t>./test_images/MAGN1731623669.882744.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3627,6 +3834,9 @@
       </c>
       <c r="K66" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="67">
@@ -3640,22 +3850,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1730736457.932594</t>
+          <t>1731623669.90067</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1730736459.0877402</t>
+          <t>1731623671.044682</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736457.932594.png</t>
+          <t>./test_images/MAGN1731623669.90067.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736459.0877402.png</t>
+          <t>./test_images/MAGN1731623671.044682.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3676,6 +3886,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="68">
@@ -3689,22 +3902,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1730736459.1086562</t>
+          <t>1731623671.0640469</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1730736461.324667</t>
+          <t>1731623673.395908</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736459.1086562.png</t>
+          <t>./test_images/MAGN1731623671.0640469.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736461.324667.png</t>
+          <t>./test_images/MAGN1731623673.395908.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3725,6 +3938,9 @@
       </c>
       <c r="K68" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="69">
@@ -3738,22 +3954,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1730736461.3416188</t>
+          <t>1731623673.4128678</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1730736461.639785</t>
+          <t>1731623673.727644</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736461.3416188.png</t>
+          <t>./test_images/MAGN1731623673.4128678.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736461.639785.png</t>
+          <t>./test_images/MAGN1731623673.727644.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3774,6 +3990,9 @@
       </c>
       <c r="K69" t="n">
         <v>0.4100000000000037</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -3787,22 +4006,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1730736465.9267285</t>
+          <t>1731623678.5241387</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1730736472.7428079</t>
+          <t>1731623685.516373</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736465.9267285.png</t>
+          <t>./test_images/MAGN1731623678.5241387.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736472.7428079.png</t>
+          <t>./test_images/MAGN1731623685.516373.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3823,6 +4042,9 @@
       </c>
       <c r="K70" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="71">
@@ -3836,22 +4058,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1730736472.7607574</t>
+          <t>1731623685.5343223</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1730736475.7090175</t>
+          <t>1731623688.6838202</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736472.7607574.png</t>
+          <t>./test_images/MAGN1731623685.5343223.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736475.7090175.png</t>
+          <t>./test_images/MAGN1731623688.6838202.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3872,6 +4094,9 @@
       </c>
       <c r="K71" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="72">
@@ -3885,22 +4110,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1730736477.0156987</t>
+          <t>1731623690.0719132</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1730736477.6221132</t>
+          <t>1731623690.7003257</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736477.0156987.png</t>
+          <t>./test_images/MAGN1731623690.0719132.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736477.6221132.png</t>
+          <t>./test_images/MAGN1731623690.7003257.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3921,6 +4146,9 @@
       </c>
       <c r="K72" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="L72" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="73">
@@ -3934,22 +4162,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1730736477.6400654</t>
+          <t>1731623690.7183063</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1730736479.771729</t>
+          <t>1731623692.928492</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736477.6400654.png</t>
+          <t>./test_images/MAGN1731623690.7183063.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736479.771729.png</t>
+          <t>./test_images/MAGN1731623692.928492.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3970,6 +4198,9 @@
       </c>
       <c r="K73" t="n">
         <v>-0.03500000000000369</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -3983,13 +4214,13 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1730736479.7896538</t>
+          <t>1731623692.9464374</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>./test_images/MAGN1730736479.7896538.png</t>
+          <t>./test_images/MAGN1731623692.9464374.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4006,8 +4237,15 @@
       <c r="I74" t="n">
         <v>51.42</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>51.42</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4020,22 +4258,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1730736480.9103248</t>
+          <t>1731623694.1470163</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1730736481.50042</t>
+          <t>1731623694.7881646</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736480.9103248.png</t>
+          <t>./test_images/CHMF1731623694.1470163.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736481.50042.png</t>
+          <t>./test_images/CHMF1731623694.7881646.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4056,6 +4294,9 @@
       </c>
       <c r="K75" t="n">
         <v>4.800000000000182</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="76">
@@ -4069,22 +4310,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1730736481.5183444</t>
+          <t>1731623694.8051188</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1730736485.1458485</t>
+          <t>1731623698.6685414</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736481.5183444.png</t>
+          <t>./test_images/CHMF1731623694.8051188.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736485.1458485.png</t>
+          <t>./test_images/CHMF1731623698.6685414.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4105,6 +4346,9 @@
       </c>
       <c r="K76" t="n">
         <v>10.40000000000009</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="77">
@@ -4118,22 +4362,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1730736485.1657958</t>
+          <t>1731623698.685525</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1730736487.8109276</t>
+          <t>1731623701.2711015</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736485.1657958.png</t>
+          <t>./test_images/CHMF1731623698.685525.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736487.8109276.png</t>
+          <t>./test_images/CHMF1731623701.2711015.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4154,6 +4398,9 @@
       </c>
       <c r="K77" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="78">
@@ -4167,22 +4414,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1730736489.8106499</t>
+          <t>1731623703.2393968</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1730736490.9252956</t>
+          <t>1731623704.3572133</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736489.8106499.png</t>
+          <t>./test_images/CHMF1731623703.2393968.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736490.9252956.png</t>
+          <t>./test_images/CHMF1731623704.3572133.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4203,6 +4450,9 @@
       </c>
       <c r="K78" t="n">
         <v>-1.600000000000136</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="79">
@@ -4216,22 +4466,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1730736490.9422505</t>
+          <t>1731623704.375165</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1730736492.4738753</t>
+          <t>1731623705.8617716</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736490.9422505.png</t>
+          <t>./test_images/CHMF1731623704.375165.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736492.4738753.png</t>
+          <t>./test_images/CHMF1731623705.8617716.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4252,6 +4502,9 @@
       </c>
       <c r="K79" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="L79" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="80">
@@ -4265,22 +4518,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1730736492.4918408</t>
+          <t>1731623705.8797233</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1730736494.2330003</t>
+          <t>1731623707.6339417</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736492.4918408.png</t>
+          <t>./test_images/CHMF1731623705.8797233.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736494.2330003.png</t>
+          <t>./test_images/CHMF1731623707.6339417.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4301,6 +4554,9 @@
       </c>
       <c r="K80" t="n">
         <v>-3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="81">
@@ -4314,22 +4570,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1730736494.250952</t>
+          <t>1731623707.6518598</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1730736496.283744</t>
+          <t>1731623709.5844972</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736494.250952.png</t>
+          <t>./test_images/CHMF1731623707.6518598.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736496.283744.png</t>
+          <t>./test_images/CHMF1731623709.5844972.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4350,6 +4606,9 @@
       </c>
       <c r="K81" t="n">
         <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4363,22 +4622,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1730736496.5111585</t>
+          <t>1731623709.8115175</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1730736497.755098</t>
+          <t>1731623711.0292733</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736496.5111585.png</t>
+          <t>./test_images/CHMF1731623709.8115175.png</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736497.755098.png</t>
+          <t>./test_images/CHMF1731623711.0292733.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4399,6 +4658,9 @@
       </c>
       <c r="K82" t="n">
         <v>-1.600000000000136</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="83">
@@ -4412,22 +4674,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1730736497.7720435</t>
+          <t>1731623711.0482495</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1730736498.5417838</t>
+          <t>1731623711.78521</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736497.7720435.png</t>
+          <t>./test_images/CHMF1731623711.0482495.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736498.5417838.png</t>
+          <t>./test_images/CHMF1731623711.78521.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4448,6 +4710,9 @@
       </c>
       <c r="K83" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="84">
@@ -4461,22 +4726,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1730736500.2228398</t>
+          <t>1731623713.4405057</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1730736501.2735658</t>
+          <t>1731623714.4623547</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736500.2228398.png</t>
+          <t>./test_images/CHMF1731623713.4405057.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736501.2735658.png</t>
+          <t>./test_images/CHMF1731623714.4623547.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4497,6 +4762,9 @@
       </c>
       <c r="K84" t="n">
         <v>-0.5999999999999091</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="85">
@@ -4510,22 +4778,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1730736501.2915285</t>
+          <t>1731623714.4803073</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1730736503.0758896</t>
+          <t>1731623716.2438304</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736501.2915285.png</t>
+          <t>./test_images/CHMF1731623714.4803073.png</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736503.0758896.png</t>
+          <t>./test_images/CHMF1731623716.2438304.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4546,6 +4814,9 @@
       </c>
       <c r="K85" t="n">
         <v>-1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4559,13 +4830,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1730736503.0948114</t>
+          <t>1731623716.2617822</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>./test_images/CHMF1730736503.0948114.png</t>
+          <t>./test_images/CHMF1731623716.2617822.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -4582,8 +4853,15 @@
       <c r="I86" t="n">
         <v>1419.2</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1419.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4596,22 +4874,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1730736504.7578957</t>
+          <t>1731623717.8637457</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1730736505.3274026</t>
+          <t>1731623718.5312176</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736504.7578957.png</t>
+          <t>./test_images/ALRS1731623717.8637457.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736505.3274026.png</t>
+          <t>./test_images/ALRS1731623718.5312176.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4632,6 +4910,9 @@
       </c>
       <c r="K87" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="88">
@@ -4645,22 +4926,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1730736507.8403633</t>
+          <t>1731623721.2243264</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1730736509.1001647</t>
+          <t>1731623722.5153062</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736507.8403633.png</t>
+          <t>./test_images/ALRS1731623721.2243264.png</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736509.1001647.png</t>
+          <t>./test_images/ALRS1731623722.5153062.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4681,6 +4962,9 @@
       </c>
       <c r="K88" t="n">
         <v>0.3900000000000006</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="89">
@@ -4694,22 +4978,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1730736509.812316</t>
+          <t>1731623723.3435597</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1730736514.127918</t>
+          <t>1731623727.7752042</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736509.812316.png</t>
+          <t>./test_images/ALRS1731623723.3435597.png</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736514.127918.png</t>
+          <t>./test_images/ALRS1731623727.7752042.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4730,6 +5014,9 @@
       </c>
       <c r="K89" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="90">
@@ -4743,22 +5030,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1730736514.8933728</t>
+          <t>1731623728.5876393</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1730736516.4335213</t>
+          <t>1731623730.1669679</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736514.8933728.png</t>
+          <t>./test_images/ALRS1731623728.5876393.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736516.4335213.png</t>
+          <t>./test_images/ALRS1731623730.1669679.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4779,6 +5066,9 @@
       </c>
       <c r="K90" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="91">
@@ -4792,22 +5082,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1730736518.449671</t>
+          <t>1731623732.2467737</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1730736522.0395525</t>
+          <t>1731623736.2230732</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736518.449671.png</t>
+          <t>./test_images/ALRS1731623732.2467737.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736522.0395525.png</t>
+          <t>./test_images/ALRS1731623736.2230732.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4828,6 +5118,9 @@
       </c>
       <c r="K91" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
@@ -4841,22 +5134,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1730736523.850809</t>
+          <t>1731623738.2291076</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1730736524.4282637</t>
+          <t>1731623738.8387046</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736523.850809.png</t>
+          <t>./test_images/ALRS1731623738.2291076.png</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736524.4282637.png</t>
+          <t>./test_images/ALRS1731623738.8387046.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4877,6 +5170,9 @@
       </c>
       <c r="K92" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="93">
@@ -4890,22 +5186,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1730736524.4462152</t>
+          <t>1731623738.8576539</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1730736526.3764596</t>
+          <t>1731623740.9671218</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736524.4462152.png</t>
+          <t>./test_images/ALRS1731623738.8576539.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736526.3764596.png</t>
+          <t>./test_images/ALRS1731623740.9671218.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4926,6 +5222,9 @@
       </c>
       <c r="K93" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="94">
@@ -4939,22 +5238,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1730736526.3944118</t>
+          <t>1731623740.9850748</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1730736527.4885926</t>
+          <t>1731623742.1451013</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736526.3944118.png</t>
+          <t>./test_images/ALRS1731623740.9850748.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736527.4885926.png</t>
+          <t>./test_images/ALRS1731623742.1451013.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4975,6 +5274,9 @@
       </c>
       <c r="K94" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="95">
@@ -4988,13 +5290,13 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1730736527.5075424</t>
+          <t>1731623742.163077</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>./test_images/ALRS1730736527.5075424.png</t>
+          <t>./test_images/ALRS1731623742.163077.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5011,8 +5313,15 @@
       <c r="I95" t="n">
         <v>60.67</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>60.67</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5025,22 +5334,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1730736528.9980762</t>
+          <t>1731623743.8395858</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1730736529.7421968</t>
+          <t>1731623744.64191</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736528.9980762.png</t>
+          <t>./test_images/SELG1731623743.8395858.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736529.7421968.png</t>
+          <t>./test_images/SELG1731623744.64191.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5061,6 +5370,9 @@
       </c>
       <c r="K96" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="97">
@@ -5074,22 +5386,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1730736529.7591517</t>
+          <t>1731623744.6588562</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1730736532.3015168</t>
+          <t>1731623747.4261289</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736529.7591517.png</t>
+          <t>./test_images/SELG1731623744.6588562.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736532.3015168.png</t>
+          <t>./test_images/SELG1731623747.4261289.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5110,6 +5422,9 @@
       </c>
       <c r="K97" t="n">
         <v>-0.3800000000000026</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -5123,22 +5438,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1730736532.3182411</t>
+          <t>1731623747.4430552</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1730736536.5392396</t>
+          <t>1731623751.815451</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736532.3182411.png</t>
+          <t>./test_images/SELG1731623747.4430552.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736536.5392396.png</t>
+          <t>./test_images/SELG1731623751.815451.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -5159,6 +5474,9 @@
       </c>
       <c r="K98" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="99">
@@ -5172,22 +5490,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1730736538.271024</t>
+          <t>1731623753.701781</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1730736543.2853901</t>
+          <t>1731623759.0470932</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736538.271024.png</t>
+          <t>./test_images/SELG1731623753.701781.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736543.2853901.png</t>
+          <t>./test_images/SELG1731623759.0470932.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5208,6 +5526,9 @@
       </c>
       <c r="K99" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="100">
@@ -5221,13 +5542,13 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1730736543.3033423</t>
+          <t>1731623759.064048</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>./test_images/SELG1730736543.3033423.png</t>
+          <t>./test_images/SELG1731623759.064048.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -5244,8 +5565,15 @@
       <c r="I100" t="n">
         <v>56.99</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>56.99</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5258,22 +5586,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1730736551.5770109</t>
+          <t>1731623767.8666053</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1730736558.0788066</t>
+          <t>1731623774.7398703</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736551.5770109.png</t>
+          <t>./test_images/SOFL1731623767.8666053.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736558.0788066.png</t>
+          <t>./test_images/SOFL1731623774.7398703.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5294,6 +5622,9 @@
       </c>
       <c r="K101" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="102">
@@ -5307,22 +5638,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1730736558.0957613</t>
+          <t>1731623774.7577956</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1730736561.0948715</t>
+          <t>1731623777.9865277</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736558.0957613.png</t>
+          <t>./test_images/SOFL1731623774.7577956.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736561.0948715.png</t>
+          <t>./test_images/SOFL1731623777.9865277.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5343,6 +5674,9 @@
       </c>
       <c r="K102" t="n">
         <v>-0.8600000000000136</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="103">
@@ -5356,22 +5690,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1730736561.1128235</t>
+          <t>1731623778.003455</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1730736566.48766</t>
+          <t>1731623783.8605323</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736561.1128235.png</t>
+          <t>./test_images/SOFL1731623778.003455.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736566.48766.png</t>
+          <t>./test_images/SOFL1731623783.8605323.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5392,6 +5726,9 @@
       </c>
       <c r="K103" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="104">
@@ -5405,22 +5742,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1730736569.85098</t>
+          <t>1731623787.4044993</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1730736572.2808673</t>
+          <t>1731623789.8198593</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736569.85098.png</t>
+          <t>./test_images/SOFL1731623787.4044993.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736572.2808673.png</t>
+          <t>./test_images/SOFL1731623789.8198593.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -5441,6 +5778,9 @@
       </c>
       <c r="K104" t="n">
         <v>-0.6200000000000045</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="105">
@@ -5454,13 +5794,13 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1730736572.2988014</t>
+          <t>1731623789.8368115</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>./test_images/SOFL1730736572.2988014.png</t>
+          <t>./test_images/SOFL1731623789.8368115.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -5477,8 +5817,15 @@
       <c r="I105" t="n">
         <v>141.24</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>141.24</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5491,22 +5838,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1730736574.4234247</t>
+          <t>1731623791.8433478</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1730736576.076115</t>
+          <t>1731623793.540522</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736574.4234247.png</t>
+          <t>./test_images/ABIO1731623791.8433478.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736576.076115.png</t>
+          <t>./test_images/ABIO1731623793.540522.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5527,6 +5874,9 @@
       </c>
       <c r="K106" t="n">
         <v>-0.4600000000000009</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="107">
@@ -5540,22 +5890,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1730736576.0940676</t>
+          <t>1731623793.5584724</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1730736577.774694</t>
+          <t>1731623795.3336651</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736576.0940676.png</t>
+          <t>./test_images/ABIO1731623793.5584724.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736577.774694.png</t>
+          <t>./test_images/ABIO1731623795.3336651.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5576,6 +5926,9 @@
       </c>
       <c r="K107" t="n">
         <v>-0.1500000000000057</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="108">
@@ -5589,22 +5942,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1730736577.7926729</t>
+          <t>1731623795.351618</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1730736578.9203892</t>
+          <t>1731623796.507723</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736577.7926729.png</t>
+          <t>./test_images/ABIO1731623795.351618.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736578.9203892.png</t>
+          <t>./test_images/ABIO1731623796.507723.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5625,6 +5978,9 @@
       </c>
       <c r="K108" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="109">
@@ -5638,22 +5994,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1730736581.8874907</t>
+          <t>1731623799.5479157</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1730736583.3091702</t>
+          <t>1731623801.1150284</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736581.8874907.png</t>
+          <t>./test_images/ABIO1731623799.5479157.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736583.3091702.png</t>
+          <t>./test_images/ABIO1731623801.1150284.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5674,6 +6030,9 @@
       </c>
       <c r="K109" t="n">
         <v>0.529999999999994</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -5687,22 +6046,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1730736585.5836897</t>
+          <t>1731623803.370299</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1730736587.7111247</t>
+          <t>1731623805.5671566</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736585.5836897.png</t>
+          <t>./test_images/ABIO1731623803.370299.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736587.7111247.png</t>
+          <t>./test_images/ABIO1731623805.5671566.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5723,6 +6082,9 @@
       </c>
       <c r="K110" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="111">
@@ -5736,22 +6098,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1730736590.6568885</t>
+          <t>1731623808.6292515</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1730736591.1097372</t>
+          <t>1731623809.0746088</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736590.6568885.png</t>
+          <t>./test_images/ABIO1731623808.6292515.png</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736591.1097372.png</t>
+          <t>./test_images/ABIO1731623809.0746088.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5772,6 +6134,9 @@
       </c>
       <c r="K111" t="n">
         <v>0.25</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="112">
@@ -5785,22 +6150,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1730736592.3795702</t>
+          <t>1731623810.4048028</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1730736595.9386773</t>
+          <t>1731623814.0570195</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736592.3795702.png</t>
+          <t>./test_images/ABIO1731623810.4048028.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736595.9386773.png</t>
+          <t>./test_images/ABIO1731623814.0570195.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5821,6 +6186,9 @@
       </c>
       <c r="K112" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="113">
@@ -5834,13 +6202,13 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1730736596.968123</t>
+          <t>1731623815.114887</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>./test_images/ABIO1730736596.968123.png</t>
+          <t>./test_images/ABIO1731623815.114887.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -5857,8 +6225,15 @@
       <c r="I113" t="n">
         <v>53.94</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5871,22 +6246,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1730736597.9829452</t>
+          <t>1731623816.177414</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1730736600.9716403</t>
+          <t>1731623819.3118644</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736597.9829452.png</t>
+          <t>./test_images/BSPB1731623816.177414.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736600.9716403.png</t>
+          <t>./test_images/BSPB1731623819.3118644.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5907,6 +6282,9 @@
       </c>
       <c r="K114" t="n">
         <v>0.03000000000002956</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="115">
@@ -5920,22 +6298,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1730736600.99059</t>
+          <t>1731623819.3298163</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1730736602.073217</t>
+          <t>1731623820.571793</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736600.99059.png</t>
+          <t>./test_images/BSPB1731623819.3298163.png</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736602.073217.png</t>
+          <t>./test_images/BSPB1731623820.571793.png</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5956,6 +6334,9 @@
       </c>
       <c r="K115" t="n">
         <v>1.319999999999993</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="116">
@@ -5969,22 +6350,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1730736602.0921667</t>
+          <t>1731623820.5897474</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1730736603.0228007</t>
+          <t>1731623821.5489867</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736602.0921667.png</t>
+          <t>./test_images/BSPB1731623820.5897474.png</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736603.0228007.png</t>
+          <t>./test_images/BSPB1731623821.5489867.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -6005,6 +6386,9 @@
       </c>
       <c r="K116" t="n">
         <v>1.019999999999982</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="117">
@@ -6018,22 +6402,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1730736603.040743</t>
+          <t>1731623821.5669363</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1730736604.098073</t>
+          <t>1731623822.702434</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736603.040743.png</t>
+          <t>./test_images/BSPB1731623821.5669363.png</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736604.098073.png</t>
+          <t>./test_images/BSPB1731623822.702434.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6054,6 +6438,9 @@
       </c>
       <c r="K117" t="n">
         <v>0.2900000000000205</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="118">
@@ -6067,22 +6454,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1730736604.116025</t>
+          <t>1731623822.720386</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1730736604.932802</t>
+          <t>1731623823.5767798</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736604.116025.png</t>
+          <t>./test_images/BSPB1731623822.720386.png</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736604.932802.png</t>
+          <t>./test_images/BSPB1731623823.5767798.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -6103,6 +6490,9 @@
       </c>
       <c r="K118" t="n">
         <v>0.8100000000000023</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="119">
@@ -6116,22 +6506,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1730736604.9507546</t>
+          <t>1731623823.5947316</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1730736605.4872918</t>
+          <t>1731623824.1529706</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736604.9507546.png</t>
+          <t>./test_images/BSPB1731623823.5947316.png</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736605.4872918.png</t>
+          <t>./test_images/BSPB1731623824.1529706.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6152,6 +6542,9 @@
       </c>
       <c r="K119" t="n">
         <v>1.659999999999968</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="120">
@@ -6165,22 +6558,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1730736617.6716428</t>
+          <t>1731623836.7600975</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1730736619.9582984</t>
+          <t>1731623839.325639</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736617.6716428.png</t>
+          <t>./test_images/BSPB1731623836.7600975.png</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736619.9582984.png</t>
+          <t>./test_images/BSPB1731623839.325639.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -6201,6 +6594,9 @@
       </c>
       <c r="K120" t="n">
         <v>0.8500000000000227</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="121">
@@ -6214,13 +6610,13 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1730736619.9762769</t>
+          <t>1731623839.343591</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>./test_images/BSPB1730736619.9762769.png</t>
+          <t>./test_images/BSPB1731623839.343591.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -6237,8 +6633,15 @@
       <c r="I121" t="n">
         <v>373.9</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6251,22 +6654,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1730736621.2125866</t>
+          <t>1731623840.539939</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1730736621.9406402</t>
+          <t>1731623841.237801</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736621.2125866.png</t>
+          <t>./test_images/FEES1731623840.539939.png</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736621.9406402.png</t>
+          <t>./test_images/FEES1731623841.237801.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6287,6 +6690,9 @@
       </c>
       <c r="K122" t="n">
         <v>0.0002999999999999947</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="123">
@@ -6300,22 +6706,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1730736621.959589</t>
+          <t>1731623841.2557528</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1730736625.559299</t>
+          <t>1731623844.8117814</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736621.959589.png</t>
+          <t>./test_images/FEES1731623841.2557528.png</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736625.559299.png</t>
+          <t>./test_images/FEES1731623844.8117814.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -6336,6 +6742,9 @@
       </c>
       <c r="K123" t="n">
         <v>-0.000120000000000009</v>
+      </c>
+      <c r="L123" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="124">
@@ -6349,22 +6758,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1730736625.5782485</t>
+          <t>1731623844.829761</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1730736626.7277691</t>
+          <t>1731623845.9695628</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736625.5782485.png</t>
+          <t>./test_images/FEES1731623844.829761.png</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736626.7277691.png</t>
+          <t>./test_images/FEES1731623845.9695628.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6385,6 +6794,9 @@
       </c>
       <c r="K124" t="n">
         <v>-6.000000000000449e-05</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="125">
@@ -6398,22 +6810,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1730736626.7467196</t>
+          <t>1731623845.9875147</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1730736630.9250247</t>
+          <t>1731623849.8672137</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736626.7467196.png</t>
+          <t>./test_images/FEES1731623845.9875147.png</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736630.9250247.png</t>
+          <t>./test_images/FEES1731623849.8672137.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6434,6 +6846,9 @@
       </c>
       <c r="K125" t="n">
         <v>-0.00118</v>
+      </c>
+      <c r="L125" t="n">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="126">
@@ -6447,22 +6862,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1730736630.9619555</t>
+          <t>1731623849.8849099</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1730736635.143715</t>
+          <t>1731623854.0046551</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736630.9619555.png</t>
+          <t>./test_images/FEES1731623849.8849099.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736635.143715.png</t>
+          <t>./test_images/FEES1731623854.0046551.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6483,6 +6898,9 @@
       </c>
       <c r="K126" t="n">
         <v>-0.0005600000000000049</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="127">
@@ -6496,22 +6914,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1730736635.162928</t>
+          <t>1731623854.0236042</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1730736638.3245656</t>
+          <t>1731623857.0464709</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736635.162928.png</t>
+          <t>./test_images/FEES1731623854.0236042.png</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736638.3245656.png</t>
+          <t>./test_images/FEES1731623857.0464709.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6532,6 +6950,9 @@
       </c>
       <c r="K127" t="n">
         <v>-0.0001600000000000074</v>
+      </c>
+      <c r="L127" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="128">
@@ -6545,22 +6966,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1730736638.3434875</t>
+          <t>1731623857.0654202</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1730736641.1594672</t>
+          <t>1731623859.812874</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736638.3434875.png</t>
+          <t>./test_images/FEES1731623857.0654202.png</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736641.1594672.png</t>
+          <t>./test_images/FEES1731623859.812874.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6581,6 +7002,9 @@
       </c>
       <c r="K128" t="n">
         <v>1.999999999999225e-05</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="129">
@@ -6594,13 +7018,13 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1730736641.1783886</t>
+          <t>1731623859.8348157</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>./test_images/FEES1730736641.1783886.png</t>
+          <t>./test_images/FEES1731623859.8348157.png</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -6617,8 +7041,15 @@
       <c r="I129" t="n">
         <v>0.09704</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.09704</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6631,22 +7062,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1730736643.9798725</t>
+          <t>1731623862.5091972</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1730736644.6581535</t>
+          <t>1731623863.2003667</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736643.9798725.png</t>
+          <t>./test_images/MXI1731623862.5091972.png</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736644.6581535.png</t>
+          <t>./test_images/MXI1731623863.2003667.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6667,6 +7098,9 @@
       </c>
       <c r="K130" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="131">
@@ -6680,22 +7114,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1730736644.6761057</t>
+          <t>1731623863.2183156</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1730736647.2427533</t>
+          <t>1731623865.8334212</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736644.6761057.png</t>
+          <t>./test_images/MXI1731623863.2183156.png</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736647.2427533.png</t>
+          <t>./test_images/MXI1731623865.8334212.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6716,6 +7150,9 @@
       </c>
       <c r="K131" t="n">
         <v>-15.15000000000009</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="132">
@@ -6729,22 +7166,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1730736647.8919892</t>
+          <t>1731623866.6353745</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1730736648.6155093</t>
+          <t>1731623867.3996105</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736647.8919892.png</t>
+          <t>./test_images/MXI1731623866.6353745.png</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736648.6155093.png</t>
+          <t>./test_images/MXI1731623867.3996105.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6765,6 +7202,9 @@
       </c>
       <c r="K132" t="n">
         <v>2.600000000000364</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="133">
@@ -6778,22 +7218,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1730736648.6334581</t>
+          <t>1731623867.4175625</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1730736651.6980379</t>
+          <t>1731623870.409076</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736648.6334581.png</t>
+          <t>./test_images/MXI1731623867.4175625.png</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736651.6980379.png</t>
+          <t>./test_images/MXI1731623870.409076.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6814,6 +7254,9 @@
       </c>
       <c r="K133" t="n">
         <v>1.200000000000273</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="134">
@@ -6827,22 +7270,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1730736654.4847379</t>
+          <t>1731623873.3240921</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1730736655.6387124</t>
+          <t>1731623874.4955678</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736654.4847379.png</t>
+          <t>./test_images/MXI1731623873.3240921.png</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736655.6387124.png</t>
+          <t>./test_images/MXI1731623874.4955678.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6863,6 +7306,9 @@
       </c>
       <c r="K134" t="n">
         <v>-1.949999999999818</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="135">
@@ -6876,22 +7322,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1730736655.6571963</t>
+          <t>1731623874.5145178</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1730736657.0551276</t>
+          <t>1731623875.9510245</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736655.6571963.png</t>
+          <t>./test_images/MXI1731623874.5145178.png</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736657.0551276.png</t>
+          <t>./test_images/MXI1731623875.9510245.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -6912,6 +7358,9 @@
       </c>
       <c r="K135" t="n">
         <v>-2.400000000000091</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="136">
@@ -6925,22 +7374,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1730736657.0750694</t>
+          <t>1731623875.9699786</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1730736658.9849024</t>
+          <t>1731623877.8472931</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736657.0750694.png</t>
+          <t>./test_images/MXI1731623875.9699786.png</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736658.9849024.png</t>
+          <t>./test_images/MXI1731623877.8472931.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6961,6 +7410,9 @@
       </c>
       <c r="K136" t="n">
         <v>1.900000000000091</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="137">
@@ -6974,22 +7426,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1730736659.9122076</t>
+          <t>1731623878.8468704</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1730736660.2669737</t>
+          <t>1731623879.2031348</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736659.9122076.png</t>
+          <t>./test_images/MXI1731623878.8468704.png</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736660.2669737.png</t>
+          <t>./test_images/MXI1731623879.2031348.png</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -7010,6 +7462,9 @@
       </c>
       <c r="K137" t="n">
         <v>3.900000000000091</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="138">
@@ -7023,22 +7478,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1730736660.2859228</t>
+          <t>1731623879.222046</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1730736663.6866899</t>
+          <t>1731623882.928219</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736660.2859228.png</t>
+          <t>./test_images/MXI1731623879.222046.png</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736663.6866899.png</t>
+          <t>./test_images/MXI1731623882.928219.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -7059,6 +7514,9 @@
       </c>
       <c r="K138" t="n">
         <v>0.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="139">
@@ -7072,22 +7530,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1730736663.7059035</t>
+          <t>1731623882.9471712</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1730736664.6813025</t>
+          <t>1731623883.9240575</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736663.7059035.png</t>
+          <t>./test_images/MXI1731623882.9471712.png</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736664.6813025.png</t>
+          <t>./test_images/MXI1731623883.9240575.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7108,6 +7566,9 @@
       </c>
       <c r="K139" t="n">
         <v>-2.550000000000182</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="140">
@@ -7121,22 +7582,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1730736664.7002263</t>
+          <t>1731623883.943035</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1730736666.9196622</t>
+          <t>1731623886.2338445</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736664.7002263.png</t>
+          <t>./test_images/MXI1731623883.943035.png</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736666.9196622.png</t>
+          <t>./test_images/MXI1731623886.2338445.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -7157,6 +7618,9 @@
       </c>
       <c r="K140" t="n">
         <v>-1.300000000000182</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="141">
@@ -7170,13 +7634,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1730736666.9386117</t>
+          <t>1731623886.252763</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>./test_images/MXI1730736666.9386117.png</t>
+          <t>./test_images/MXI1731623886.252763.png</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -7193,8 +7657,15 @@
       <c r="I141" t="n">
         <v>3016.75</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3016.75</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7207,22 +7678,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1730736667.6726928</t>
+          <t>1731623887.0335808</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1730736669.0953646</t>
+          <t>1731623888.5315466</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736667.6726928.png</t>
+          <t>./test_images/RUAL1731623887.0335808.png</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736669.0953646.png</t>
+          <t>./test_images/RUAL1731623888.5315466.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -7243,6 +7714,9 @@
       </c>
       <c r="K142" t="n">
         <v>-0.1999999999999957</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="143">
@@ -7256,22 +7730,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1730736669.1142862</t>
+          <t>1731623888.549471</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1730736670.5876334</t>
+          <t>1731623890.24751</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736669.1142862.png</t>
+          <t>./test_images/RUAL1731623888.549471.png</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736670.5876334.png</t>
+          <t>./test_images/RUAL1731623890.24751.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7292,6 +7766,9 @@
       </c>
       <c r="K143" t="n">
         <v>-0.08499999999999375</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="144">
@@ -7305,22 +7782,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1730736670.6055844</t>
+          <t>1731623890.2654605</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1730736671.424808</t>
+          <t>1731623890.9839842</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736670.6055844.png</t>
+          <t>./test_images/RUAL1731623890.2654605.png</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736671.424808.png</t>
+          <t>./test_images/RUAL1731623890.9839842.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7341,6 +7818,9 @@
       </c>
       <c r="K144" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="145">
@@ -7354,22 +7834,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1730736671.442791</t>
+          <t>1731623891.0019395</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1730736677.6210377</t>
+          <t>1731623897.3569567</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736671.442791.png</t>
+          <t>./test_images/RUAL1731623891.0019395.png</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736677.6210377.png</t>
+          <t>./test_images/RUAL1731623897.3569567.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7390,6 +7870,9 @@
       </c>
       <c r="K145" t="n">
         <v>-0.2449999999999974</v>
+      </c>
+      <c r="L145" t="n">
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="146">
@@ -7403,22 +7886,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1730736677.6599052</t>
+          <t>1731623897.3761046</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1730736680.317007</t>
+          <t>1731623900.2123811</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736677.6599052.png</t>
+          <t>./test_images/RUAL1731623897.3761046.png</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736680.317007.png</t>
+          <t>./test_images/RUAL1731623900.2123811.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7439,6 +7922,9 @@
       </c>
       <c r="K146" t="n">
         <v>0.1450000000000031</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="147">
@@ -7452,22 +7938,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1730736681.4125931</t>
+          <t>1731623901.4511435</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1730736688.2570498</t>
+          <t>1731623908.1870303</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736681.4125931.png</t>
+          <t>./test_images/RUAL1731623901.4511435.png</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736688.2570498.png</t>
+          <t>./test_images/RUAL1731623908.1870303.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7488,6 +7974,9 @@
       </c>
       <c r="K147" t="n">
         <v>-0.3200000000000003</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -7501,22 +7990,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1730736688.2769966</t>
+          <t>1731623908.2059827</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1730736691.581132</t>
+          <t>1731623911.5957854</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736688.2769966.png</t>
+          <t>./test_images/RUAL1731623908.2059827.png</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>./test_images/RUAL1730736691.581132.png</t>
+          <t>./test_images/RUAL1731623911.5957854.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7537,6 +8026,521 @@
       </c>
       <c r="K148" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>1731623912.7199643</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1731623913.490622</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623912.7199643.png</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623913.490622.png</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>644.9</v>
+      </c>
+      <c r="J149" t="n">
+        <v>647</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2.100000000000023</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1731623913.5095713</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1731623915.532804</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623913.5095713.png</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623915.532804.png</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>647</v>
+      </c>
+      <c r="J150" t="n">
+        <v>649.6</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-2.600000000000023</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1731623915.5517833</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1731623916.9563649</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623915.5517833.png</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623916.9563649.png</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>649.6</v>
+      </c>
+      <c r="J151" t="n">
+        <v>649</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1731623916.9753141</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1731623918.8312738</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623916.9753141.png</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623918.8312738.png</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>649</v>
+      </c>
+      <c r="J152" t="n">
+        <v>647.4</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.600000000000023</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>1731623921.4284105</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1731623927.5129316</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623921.4284105.png</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623927.5129316.png</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>648.8</v>
+      </c>
+      <c r="J153" t="n">
+        <v>648.5</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-0.2999999999999545</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1731623927.5329065</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1731623929.1910188</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623927.5329065.png</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623929.1910188.png</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>648.5</v>
+      </c>
+      <c r="J154" t="n">
+        <v>649.5</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1731623929.209941</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1731623932.0359423</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623929.209941.png</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623932.0359423.png</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>649.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>645.5</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1731623932.0558891</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1731623932.3645453</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623932.0558891.png</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623932.3645453.png</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>645.5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>642.6</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.899999999999977</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1731623933.018923</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1731623933.396363</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623933.018923.png</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623933.396363.png</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>644.5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>642.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>1731623936.637611</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731623936.637611.png</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="J158" t="n">
+        <v>639.4</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7550,7 +8554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7574,6 +8578,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7585,7 +8604,16 @@
         <v>-7.600000000000136</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.5846153846153951</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3">
@@ -7598,7 +8626,16 @@
         <v>-11.44999999999936</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.9541666666666136</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="4">
@@ -7611,85 +8648,148 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.579999999999956</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.01000000000000227</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02999999999999997</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9799999999999898</v>
+        <v>1.579999999999956</v>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.1579999999999956</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6</v>
+        <v>0.9799999999999898</v>
       </c>
       <c r="C7" t="n">
         <v>10</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.09799999999999898</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1200000000000045</v>
+        <v>-6</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.09000000000000005</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.030000000000001</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01333333333333384</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.6649999999999778</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1144444444444446</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
@@ -7702,7 +8802,16 @@
         <v>3.099999999999966</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3874999999999957</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -7715,7 +8824,16 @@
         <v>0.3599999999999852</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.04499999999999815</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
@@ -7728,7 +8846,16 @@
         <v>-0.001760000000000039</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0002200000000000049</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="14">
@@ -7741,73 +8868,145 @@
         <v>5.980000000000018</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7475000000000023</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.579999999999984</v>
+        <v>-0.6649999999999778</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.09499999999999684</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1699999999999591</v>
+        <v>1.579999999999984</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2633333333333307</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1899999999999977</v>
+        <v>-0.1699999999999591</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.02833333333332651</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.06999999999999997</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.360000000000042</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.03799999999999955</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.360000000000042</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.2720000000000084</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
